--- a/automation/test-data-auto-analysis/Prod_PHI.xlsx
+++ b/automation/test-data-auto-analysis/Prod_PHI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/qibai_chen_intel_com/Documents/Documents/AI_Code/Test Data Auto analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/qibai_chen_intel_com/Documents/Documents/AI_Code/automation/test-data-auto-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{4FC44332-88DF-4677-A23C-F01D7E314433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979F6A60-1DFE-4908-B0DF-6637FABDE8BE}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{4FC44332-88DF-4677-A23C-F01D7E314433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1CBBB1-8942-4ED3-A393-9D3260389051}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="3228" windowWidth="22536" windowHeight="11544" xr2:uid="{0073506E-6335-462E-B0ED-526DFFB34FC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0073506E-6335-462E-B0ED-526DFFB34FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prod_PHI" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Operation</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>PHMHOT</t>
+  </si>
+  <si>
+    <t>4PXA2VEB</t>
+  </si>
+  <si>
+    <t>4PXA4VEB</t>
+  </si>
+  <si>
+    <t>4PXA5VEB</t>
+  </si>
+  <si>
+    <t>4PXA6VEB</t>
+  </si>
+  <si>
+    <t>post PRQ ETT PHI 是368, RCS是20</t>
   </si>
 </sst>
 </file>
@@ -388,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -518,6 +533,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -563,12 +615,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,23 +1011,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371694A9-00D1-4081-9F02-6D3C4F53C527}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -986,8 +1048,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>6248</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1000,14 +1062,17 @@
         <v>0.753</v>
       </c>
       <c r="E2" s="1">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="F2" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1016,14 +1081,14 @@
         <v>0.753</v>
       </c>
       <c r="E3" s="1">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="F3" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1032,14 +1097,14 @@
         <v>0.753</v>
       </c>
       <c r="E4" s="1">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="F4" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1048,14 +1113,14 @@
         <v>0.753</v>
       </c>
       <c r="E5" s="1">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="F5" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1068,8 +1133,8 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1080,8 +1145,8 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1092,8 +1157,8 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1104,81 +1169,266 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>6274</v>
-      </c>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>0.995</v>
+        <v>0.753</v>
       </c>
       <c r="E10" s="1">
-        <v>150</v>
+        <v>435</v>
       </c>
       <c r="F10" s="2">
-        <v>0.1009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>0.995</v>
+        <v>0.753</v>
       </c>
       <c r="E11" s="1">
-        <v>150</v>
+        <v>435</v>
       </c>
       <c r="F11" s="2">
-        <v>0.1009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
-        <v>0.995</v>
+        <v>0.753</v>
       </c>
       <c r="E12" s="1">
-        <v>150</v>
+        <v>435</v>
       </c>
       <c r="F12" s="2">
-        <v>0.1009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.753</v>
+      </c>
+      <c r="E13" s="1">
+        <v>435</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>6274</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="E18" s="1">
+        <v>150</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="E19" s="1">
+        <v>150</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="E20" s="1">
+        <v>150</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D21" s="2">
         <v>0.995</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E21" s="1">
         <v>150</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F21" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="E22" s="1">
+        <v>150</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="E23" s="1">
+        <v>150</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="E24" s="1">
+        <v>150</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="E25" s="1">
+        <v>150</v>
+      </c>
+      <c r="F25" s="2">
         <v>0.1009</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A9"/>
+  <mergeCells count="8">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
